--- a/src/assets/zxsj_mb/sjzxtb_k18_dzts.xlsx
+++ b/src/assets/zxsj_mb/sjzxtb_k18_dzts.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
   <si>
     <t>年度</t>
   </si>
@@ -48,8 +48,7 @@
         <rFont val="Segoe UI"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">Apabi
-</t>
+      <t>Apabi</t>
     </r>
     <r>
       <rPr>
@@ -63,78 +62,19 @@
     </r>
   </si>
   <si>
-    <t>人大复印报刊
-资料数据库</t>
+    <t>人大复印报刊资料数据库</t>
   </si>
   <si>
     <t>博看期刊网</t>
   </si>
   <si>
-    <t>新东方多媒体
-学习库</t>
+    <t>新东方多媒体学习库</t>
   </si>
   <si>
     <t>访问量</t>
   </si>
   <si>
     <t>下载量</t>
-  </si>
-  <si>
-    <t>nd</t>
-  </si>
-  <si>
-    <t>xxdm</t>
-  </si>
-  <si>
-    <t>xxmc</t>
-  </si>
-  <si>
-    <t>zgzw_fwl</t>
-  </si>
-  <si>
-    <t>zgzw_xzl</t>
-  </si>
-  <si>
-    <t>cxdzts_fwl</t>
-  </si>
-  <si>
-    <t>cxdzts_xzl</t>
-  </si>
-  <si>
-    <t>cxqk_fwl</t>
-  </si>
-  <si>
-    <t>cxqk_xzl</t>
-  </si>
-  <si>
-    <t>dxxs_fwl</t>
-  </si>
-  <si>
-    <t>dxxs_xzl</t>
-  </si>
-  <si>
-    <t>fzapabi_fwl</t>
-  </si>
-  <si>
-    <t>fzapabi_xzl</t>
-  </si>
-  <si>
-    <t>rdfybk_fwl</t>
-  </si>
-  <si>
-    <t>rdfybk_xzl</t>
-  </si>
-  <si>
-    <t>bkqkw_fwl</t>
-  </si>
-  <si>
-    <t>bkqkw_xzl</t>
-  </si>
-  <si>
-    <t>xdfdmt_fwl</t>
-  </si>
-  <si>
-    <t>xdfdmt_xzl</t>
   </si>
   <si>
     <t>上海开放大学</t>
@@ -146,9 +86,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -182,13 +122,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -196,43 +129,99 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,17 +235,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,62 +251,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,19 +274,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,163 +418,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,6 +483,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -559,40 +508,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
         <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -616,16 +541,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,6 +565,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -648,145 +588,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1128,13 +1068,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.5833333333333" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="15.5833333333333" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="5.16666666666667" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
@@ -1253,121 +1193,62 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="27" customHeight="1" spans="1:19">
-      <c r="A3" s="5" t="s">
+    <row r="3" s="1" customFormat="1" ht="28" customHeight="1" spans="1:19">
+      <c r="A3" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B3" s="5">
+        <v>51252</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="28" customHeight="1" spans="1:19">
-      <c r="A4" s="5">
-        <v>2018</v>
-      </c>
-      <c r="B4" s="5">
-        <v>51252</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5">
-        <v>0</v>
-      </c>
-      <c r="I4" s="5">
-        <v>0</v>
-      </c>
-      <c r="J4" s="5">
-        <v>0</v>
-      </c>
-      <c r="K4" s="5">
-        <v>0</v>
-      </c>
-      <c r="L4" s="5">
-        <v>0</v>
-      </c>
-      <c r="M4" s="5">
-        <v>0</v>
-      </c>
-      <c r="N4" s="5">
-        <v>0</v>
-      </c>
-      <c r="O4" s="5">
-        <v>0</v>
-      </c>
-      <c r="P4" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>0</v>
-      </c>
-      <c r="R4" s="5">
-        <v>0</v>
-      </c>
-      <c r="S4" s="5">
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0</v>
+      </c>
+      <c r="P3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>0</v>
+      </c>
+      <c r="R3" s="5">
+        <v>0</v>
+      </c>
+      <c r="S3" s="5">
         <v>0</v>
       </c>
     </row>
